--- a/produto_openpyxl.xlsx
+++ b/produto_openpyxl.xlsx
@@ -2,35 +2,63 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="520" yWindow="500" windowWidth="18920" windowHeight="14660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="FF595959"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,100 +78,104 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -153,13 +185,12 @@
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="1"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
@@ -174,14 +205,41 @@
           </tx>
           <spPr>
             <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
+          <dLbls>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
           <cat>
             <strRef>
               <f>Sheet1!$A$2:$A$8</f>
@@ -224,7 +282,7 @@
                   <v>5850</v>
                 </pt>
                 <pt idx="2">
-                  <v>989.9890000000001</v>
+                  <v>989.989</v>
                 </pt>
                 <pt idx="3">
                   <v>1038.7</v>
@@ -242,25 +300,17 @@
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="813882959"/>
-        <axId val="813882543"/>
+        <axId val="78593899"/>
+        <axId val="51052703"/>
       </barChart>
       <lineChart>
         <grouping val="standard"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="1"/>
+          <order val="1"/>
           <tx>
             <strRef>
               <f>Sheet1!$D$1</f>
@@ -273,9 +323,12 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28440" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4f81bd"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -289,6 +342,33 @@
               </a:ln>
             </spPr>
           </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
           <cat>
             <strRef>
               <f>Sheet1!$A$2:$A$8</f>
@@ -350,31 +430,140 @@
           </val>
           <smooth val="0"/>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <marker val="1"/>
-        <smooth val="0"/>
-        <axId val="509217535"/>
-        <axId val="509205887"/>
+        <hiLowLines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </hiLowLines>
+        <marker val="0"/>
+        <axId val="70880504"/>
+        <axId val="49069106"/>
       </lineChart>
       <catAx>
-        <axId val="813882959"/>
+        <axId val="78593899"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
         <delete val="1"/>
-        <axPos val="b"/>
+        <axPos val="t"/>
         <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="out"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <crossAx val="813882543"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="51052703"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="51052703"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="r"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="78593899"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+      </valAx>
+      <catAx>
+        <axId val="70880504"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="49069106"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -382,106 +571,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="813882543"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="r"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </txPr>
-        <crossAx val="813882959"/>
-        <crosses val="max"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <catAx>
-        <axId val="509217535"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </txPr>
-        <crossAx val="509205887"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="509205887"/>
+        <axId val="49069106"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -489,53 +579,44 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
           </spPr>
         </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:t/>
             </a:r>
-            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </txPr>
-        <crossAx val="509217535"/>
+        <crossAx val="70880504"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
@@ -545,32 +626,27 @@
       <overlay val="0"/>
       <spPr>
         <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
             <a:t/>
           </a:r>
-          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </txPr>
     </legend>
@@ -579,14 +655,11 @@
   </chart>
   <spPr>
     <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9360">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
       <a:round/>
@@ -597,18 +670,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
     <from>
       <col>0</col>
-      <colOff>372207</colOff>
-      <row>8</row>
-      <rowOff>82061</rowOff>
+      <colOff>60480</colOff>
+      <row>9</row>
+      <rowOff>140760</rowOff>
     </from>
     <to>
       <col>7</col>
-      <colOff>444011</colOff>
-      <row>23</row>
-      <rowOff>99646</rowOff>
+      <colOff>131760</colOff>
+      <row>24</row>
+      <rowOff>158400</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -628,41 +701,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -670,452 +743,366 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.859375" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.29" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.43" customWidth="1" style="2" min="2" max="2"/>
+    <col width="7.42" customWidth="1" style="2" min="3" max="3"/>
+    <col width="18.86" customWidth="1" style="2" min="4" max="4"/>
+    <col width="14.29" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Produtos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Preço Base Original</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Multiplicador Imposto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Preço Base Final</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Tablet</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>999.99</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>D2*B2</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Pós Graduação</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>4500</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Serviço</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="2">
         <f>D3*B3</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Telemovel</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>899.99</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f>D4*B4</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Passagem Aérea</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>799</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Serviço</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="2">
         <f>D5*B5</f>
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Computador</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f>D6*B6</f>
         <v/>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>SPA</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>480.48</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Serviço</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>D7*B7</f>
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Corte Cabelo</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Serviço</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="2">
         <f>D8*B8</f>
         <v/>
       </c>
     </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>480.48</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9*B9</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>